--- a/results/binary/40945/automl.xlsx
+++ b/results/binary/40945/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.857 (0.855 Â± 0.002)</t>
+          <t>0.857 (0.855 ± 0.002)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:00:58 (00:01:25 Â± 00:00:21)</t>
+          <t>00:00:58 (00:01:25 ± 00:00:21)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:09 (00:00:09 Â± 00:00:00)</t>
+          <t>00:00:09 (00:00:09 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.981 (0.967 Â± 0.009)</t>
+          <t>0.981 (0.967 ± 0.009)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:08 Â± 00:00:01)</t>
+          <t>00:00:07 (00:00:08 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.969 (0.945 Â± 0.015)</t>
+          <t>0.969 (0.945 ± 0.015)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:24 (00:00:37 Â± 00:00:09)</t>
+          <t>00:00:24 (00:00:37 ± 00:00:09)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.989 (0.972 Â± 0.007)</t>
+          <t>0.989 (0.972 ± 0.007)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:13 (00:05:22 Â± 00:00:07)</t>
+          <t>00:05:13 (00:05:22 ± 00:00:07)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.915 (0.881 Â± 0.023)</t>
+          <t>0.915 (0.881 ± 0.023)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:58 (00:05:02 Â± 00:00:02)</t>
+          <t>00:04:58 (00:05:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.954 (0.947 Â± 0.009)</t>
+          <t>0.954 (0.947 ± 0.009)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:01 Â± 00:00:00)</t>
+          <t>00:05:00 (00:05:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.985 (0.400 Â± 0.329)</t>
+          <t>0.985 (0.400 ± 0.329)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -719,17 +719,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.985 (0.968 Â± 0.009)</t>
+          <t>0.985 (0.968 ± 0.009)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:03 Â± 00:00:01)</t>
+          <t>00:05:01 (00:05:03 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -763,17 +763,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.985 (0.966 Â± 0.008)</t>
+          <t>0.985 (0.966 ± 0.008)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:57 (00:01:08 Â± 00:00:07)</t>
+          <t>00:00:57 (00:01:08 ± 00:00:07)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -795,17 +795,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.962 (0.944 Â± 0.012)</t>
+          <t>0.962 (0.944 ± 0.012)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:26 (00:00:28 Â± 00:00:01)</t>
+          <t>00:00:26 (00:00:28 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -827,17 +827,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.969 (0.956 Â± 0.010)</t>
+          <t>0.969 (0.956 ± 0.010)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:04:33 (00:04:51 Â± 00:00:08)</t>
+          <t>00:04:33 (00:04:51 ± 00:00:08)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -859,17 +859,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.965 (0.947 Â± 0.011)</t>
+          <t>0.965 (0.947 ± 0.011)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:11 (00:00:12 Â± 00:00:00)</t>
+          <t>00:00:11 (00:00:12 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
